--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30453.34280926694</v>
+        <v>26887.84093571818</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11516124.87593704</v>
+        <v>11512584.99959452</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>141.5864283233704</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>66.31359624902572</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>108.3893242973397</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722575</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>181.6175645302743</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>273.2405793882182</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>33.19334180315847</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.7089232227647</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -1026,16 +1026,16 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>140.3146023933136</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>166.3009955447885</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,13 +1057,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>52.78622516058812</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.9404899108775</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>16.22734377195161</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.2698474393481</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>120.6139027725373</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1382,10 +1382,10 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>65.87543334372788</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>88.84217165265281</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.16398347865061</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>82.99846957177846</v>
@@ -1537,16 +1537,16 @@
         <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>81.95370495454191</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1585,7 +1585,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>189.1733040591473</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>70.08054975834006</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1661,19 +1661,19 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>82.92491162465757</v>
@@ -1777,7 +1777,7 @@
         <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
         <v>82.84545313338901</v>
@@ -1816,7 +1816,7 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>79.04211226647696</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1825,13 +1825,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>117.5865071858816</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875462</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838877</v>
+        <v>24.1738259657499</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828889</v>
+        <v>52.06849973565002</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431722</v>
+        <v>70.57601873167835</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459962</v>
+        <v>55.72314698196075</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643935</v>
+        <v>41.29686219380048</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931846</v>
+        <v>41.22330424667959</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908573</v>
+        <v>42.97275566644686</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147786</v>
+        <v>53.79159358883899</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804991</v>
+        <v>41.14384575541104</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922184</v>
+        <v>18.98356133658297</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367775</v>
+        <v>9.882059701038884</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920507</v>
+        <v>88.0080032065662</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253649</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1669.311879757299</v>
+        <v>517.7252429274713</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.13637826023</v>
+        <v>517.7252429274713</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>517.7252429274713</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>517.7252429274713</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475491</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310448</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>607.9173797052176</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207955</v>
+        <v>1121.520058314906</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845417</v>
+        <v>1635.122736924594</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.790056023267</v>
+        <v>1704.16330278521</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.790056023267</v>
+        <v>1314.710697718267</v>
       </c>
       <c r="Y2" t="n">
-        <v>2069.806625468696</v>
+        <v>918.2199886388682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>705.1769721472984</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>554.5227417073907</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>424.4337743288709</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>287.9872834397586</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>163.5554773228905</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475491</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475491</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>138.539793384047</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>458.2789394462734</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>458.2789394462734</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>996.5377244563655</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S3" t="n">
-        <v>2065.298803780837</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T3" t="n">
-        <v>1888.314991979745</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1678.251848658387</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1455.711847029454</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1225.594601162741</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.287523512753</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>856.9733065882598</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.7497132953094</v>
+        <v>197.062058897136</v>
       </c>
       <c r="C4" t="n">
-        <v>211.7497132953094</v>
+        <v>197.062058897136</v>
       </c>
       <c r="D4" t="n">
-        <v>211.7497132953094</v>
+        <v>197.062058897136</v>
       </c>
       <c r="E4" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>197.062058897136</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>197.062058897136</v>
       </c>
       <c r="W4" t="n">
-        <v>668.9420966956829</v>
+        <v>197.062058897136</v>
       </c>
       <c r="X4" t="n">
-        <v>434.861774478666</v>
+        <v>197.062058897136</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.7497132953094</v>
+        <v>197.062058897136</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1276.13637826023</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="C5" t="n">
-        <v>1276.13637826023</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="D5" t="n">
-        <v>1276.13637826023</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310448</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.706865059666</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596797</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023267</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964318</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964318</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964318</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964318</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964318</v>
+        <v>1670.634674701212</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.276500964318</v>
+        <v>1670.634674701212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1676.631123971626</v>
+        <v>1274.143965621813</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144823</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653844</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875476</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1874.203327926271</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1664.140184604913</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1441.60018297598</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="W6" t="n">
-        <v>1211.482937109267</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1022.175859459279</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>842.8616425347859</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.6226020616494</v>
+        <v>344.8027900532713</v>
       </c>
       <c r="C7" t="n">
-        <v>366.4174841276387</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7843710301534</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="E7" t="n">
-        <v>55.22555888935591</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475491</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475491</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475491</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>530.0108087445726</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>530.0108087445726</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>530.0108087445726</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>530.0108087445726</v>
       </c>
       <c r="Y7" t="n">
-        <v>721.8306207529507</v>
+        <v>530.0108087445726</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>473.3297600431586</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="C8" t="n">
-        <v>473.3297600431586</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="D8" t="n">
-        <v>473.3297600431586</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>371.4442765563904</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4841,13 +4841,13 @@
         <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.3302549026308</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1467.291089243225</v>
+        <v>1500.043609187503</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.91186289235</v>
+        <v>1178.664382836628</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1056.832157813863</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>726.0449080766009</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654567</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654567</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2921.499537967109</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.543083547901</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.543083547901</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="W11" t="n">
-        <v>2438.340323662383</v>
+        <v>2471.092843606661</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.683993741633</v>
+        <v>2153.436513685911</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.989559808428</v>
+        <v>1828.742079752706</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.1462958193402</v>
+        <v>410.9088655939297</v>
       </c>
       <c r="C13" t="n">
-        <v>376.5463125075719</v>
+        <v>312.5000228061128</v>
       </c>
       <c r="D13" t="n">
-        <v>292.7094745562805</v>
+        <v>228.6631848548216</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616769</v>
+        <v>144.9006478602185</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208438</v>
+        <v>144.9006478602185</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>144.9006478602185</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457736</v>
+        <v>936.042825624544</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127918</v>
+        <v>936.042825624544</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901633</v>
+        <v>724.5086987019155</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193402</v>
+        <v>562.2246516310925</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.1462958193402</v>
+        <v>410.9088655939297</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1589.282783693955</v>
+        <v>1758.912988943184</v>
       </c>
       <c r="C14" t="n">
-        <v>1589.282783693955</v>
+        <v>1437.533762592308</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1123.88890895517</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>793.101659217908</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2560.332018113113</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>2242.675688192363</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y14" t="n">
-        <v>1917.981254259158</v>
+        <v>2087.611459508387</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1009.629923393023</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>398.9304381831559</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="C16" t="n">
-        <v>398.9304381831559</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="D16" t="n">
-        <v>315.0936002318645</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="E16" t="n">
-        <v>231.3310632372609</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G16" t="n">
         <v>145.8014035964277</v>
@@ -5464,22 +5464,22 @@
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1233.767601481136</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.125084869231</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V16" t="n">
-        <v>825.9420148362491</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W16" t="n">
-        <v>825.9420148362491</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X16" t="n">
-        <v>663.6579677654261</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="Y16" t="n">
-        <v>512.3421817282633</v>
+        <v>411.5513789862251</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924253</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,31 +5534,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>691.2836731261135</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
         <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5838,10 +5838,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1084.690231197904</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>161.4017547291067</v>
       </c>
       <c r="K22" t="n">
         <v>243.2367958390485</v>
@@ -5917,43 +5917,43 @@
         <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>593.6560140511124</v>
       </c>
       <c r="N22" t="n">
         <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6206,22 +6206,22 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,31 +6230,31 @@
         <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6379,16 +6379,16 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985356</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057086</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835511</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651163</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897129</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038078</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>102.254681251447</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>102.254681251447</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>585.8207671497603</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210286</v>
+        <v>1213.592416776441</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1869.370387987</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965119</v>
+        <v>365.6713676929721</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918658</v>
+        <v>309.3853606404865</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237452</v>
+        <v>267.6713584245264</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123124</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.14288975465</v>
+        <v>182.6248332597522</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431897</v>
+        <v>86.73045008374204</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>261.0422972872698</v>
       </c>
       <c r="L34" t="n">
-        <v>391.009579354136</v>
+        <v>536.8220577360523</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194704</v>
+        <v>799.1395520791275</v>
       </c>
       <c r="N34" t="n">
-        <v>971.03697717775</v>
+        <v>982.3291861103368</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1256.686073727028</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250192</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395503</v>
+        <v>835.7257283273686</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000926</v>
+        <v>666.3144371400714</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124404</v>
+        <v>546.1532258045796</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584484</v>
+        <v>436.9602755027482</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924236</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6959,28 +6959,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840158</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443167</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307968</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885601</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369577</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218808</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072693</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462929</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197453</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9732559860694</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462908</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960396</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343036</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655128</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>845.847430707221</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918796</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446707</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>362.7752171258628</v>
       </c>
       <c r="M2" t="n">
-        <v>317.89071337387</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,19 +8055,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>178.448633080093</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837483</v>
+        <v>574.4602701392405</v>
       </c>
       <c r="N3" t="n">
-        <v>629.067855288603</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>214.001836689613</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>564.9482258454414</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>419.0606576562838</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.067855288603</v>
+        <v>458.3732307488519</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>324.3528815085492</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,7 +8538,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536984</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8769,7 +8769,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>108.8653421701425</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>301.8549375253374</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>402.6112553011318</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888879</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>199.6102425680207</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9717,16 +9717,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>117.4945034435373</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,25 +11136,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11376,13 +11376,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>189.8945023282297</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>61.34511236879274</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>54.26077088128812</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
         <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0.8917481788471093</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>121.3351010416197</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>271.56663193225</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>83.2414366522393</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>43.07469941423314</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1002945.535475024</v>
+        <v>1001140.892633743</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1002945.535475024</v>
+        <v>1001140.892633743</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906092.6797598235</v>
+        <v>906092.6797598233</v>
       </c>
     </row>
     <row r="6">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>324597.9205680421</v>
+      </c>
+      <c r="C2" t="n">
         <v>324597.9205680423</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>324597.9205680421</v>
       </c>
-      <c r="D2" t="n">
-        <v>324597.920568042</v>
-      </c>
       <c r="E2" t="n">
-        <v>286846.2421639213</v>
+        <v>286846.2421639212</v>
       </c>
       <c r="F2" t="n">
-        <v>286846.2421639212</v>
+        <v>286846.2421639214</v>
       </c>
       <c r="G2" t="n">
-        <v>324597.9205680428</v>
+        <v>324597.9205680429</v>
       </c>
       <c r="H2" t="n">
         <v>324597.9205680428</v>
       </c>
       <c r="I2" t="n">
-        <v>324597.9205680428</v>
+        <v>324597.920568043</v>
       </c>
       <c r="J2" t="n">
         <v>324597.9205680426</v>
@@ -26341,19 +26341,19 @@
         <v>324597.9205680426</v>
       </c>
       <c r="L2" t="n">
-        <v>324597.9205680416</v>
+        <v>324597.9205680418</v>
       </c>
       <c r="M2" t="n">
+        <v>324597.9205680428</v>
+      </c>
+      <c r="N2" t="n">
         <v>324597.9205680429</v>
-      </c>
-      <c r="N2" t="n">
-        <v>324597.9205680428</v>
       </c>
       <c r="O2" t="n">
         <v>324597.9205680428</v>
       </c>
       <c r="P2" t="n">
-        <v>324597.9205680428</v>
+        <v>324597.920568043</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062215</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668191</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539667</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.8294596231</v>
+        <v>43252.52447081136</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277128</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26442,10 +26442,10 @@
         <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26457,7 +26457,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26494,19 +26494,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-156715.6414777066</v>
+        <v>-151762.6480496518</v>
       </c>
       <c r="C6" t="n">
-        <v>25489.30681414896</v>
+        <v>22096.00898440355</v>
       </c>
       <c r="D6" t="n">
-        <v>17168.46642857921</v>
+        <v>9432.177205188054</v>
       </c>
       <c r="E6" t="n">
-        <v>-29972.59248664189</v>
+        <v>-30182.32403333152</v>
       </c>
       <c r="F6" t="n">
-        <v>82149.96898740259</v>
+        <v>81940.23744071323</v>
       </c>
       <c r="G6" t="n">
-        <v>19733.65574758092</v>
+        <v>19733.65574758104</v>
       </c>
       <c r="H6" t="n">
-        <v>67158.98128426287</v>
+        <v>67158.98128426273</v>
       </c>
       <c r="I6" t="n">
-        <v>67158.9812842629</v>
+        <v>67158.98128426311</v>
       </c>
       <c r="J6" t="n">
-        <v>-145882.9363130227</v>
+        <v>-139366.6511584497</v>
       </c>
       <c r="K6" t="n">
-        <v>60919.21288147967</v>
+        <v>60919.21288147951</v>
       </c>
       <c r="L6" t="n">
-        <v>5736.62394685758</v>
+        <v>1687.786736385598</v>
       </c>
       <c r="M6" t="n">
-        <v>24958.15182463985</v>
+        <v>23906.4568134514</v>
       </c>
       <c r="N6" t="n">
-        <v>67158.98128426287</v>
+        <v>67158.98128426302</v>
       </c>
       <c r="O6" t="n">
-        <v>39391.28724149148</v>
+        <v>39391.28724149166</v>
       </c>
       <c r="P6" t="n">
-        <v>67158.9812842629</v>
+        <v>67158.98128426311</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.997242823745321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095195</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014445</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660703</v>
+        <v>78.07030221924583</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551333</v>
+        <v>17.58004954287457</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773705</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407358</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>271.1390657619516</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>326.2122057395792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>25.19204603179016</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758549</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>100.9668393102437</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>7.256518659915969</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.419642774174811</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.8168787658402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>34.89937128976703</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>61.51507786325746</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>144.1400749395018</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>229.7981786799299</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291.5493083434054</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27862,16 +27862,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>396.4981503133704</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28011,25 +28011,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>68.2332193153226</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529149</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.0125002648513</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901232</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431664</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>48.65992738832824</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.10808140893339</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031428</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861253827</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733508</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,43 +30141,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,37 +30615,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.636002634527642</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>35.71049010668843</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>35.71049010668915</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,10 +30888,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -32236,22 +32236,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.021333776245202e-13</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.267054861942472e-13</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.409842669246113e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.432655397579646e-13</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.35281586661033e-13</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.154597043650681e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -32321,13 +32321,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.0884973389412e-13</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.117306624578055e-13</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.022117277921815e-13</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>209.5270473953711</v>
       </c>
       <c r="M2" t="n">
-        <v>168.1656617761427</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.00417574675964</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344364</v>
+        <v>482.0731480899286</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344364</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344364</v>
+        <v>64.2767850918857</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>415.3843884213449</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>326.6735356069718</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344364</v>
+        <v>373.0011178946853</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>181.2944783293118</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043865</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>23.49322931597588</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>216.4828246711707</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35884,22 +35884,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>312.5509084442136</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094879</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>107.2231205187088</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>200.0587396437669</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028095</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101033</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122748</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>400.364464894916</v>
+        <v>464.4844572792977</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683160011</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>35.05004611020397</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791197</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>264.9671660031062</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504964</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>316.4712935610698</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565476</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,10 +37953,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684092</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38096,13 +38096,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934991</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,10 +38184,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
